--- a/Descargas/R15_8º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Diciembre.xlsx
+++ b/Descargas/R15_8º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Diciembre.xlsx
@@ -837,7 +837,7 @@
     <row r="64">
       <c t="inlineStr" r="A64">
         <is>
-          <t xml:space="preserve">Lesiones Graves Gravisimas. Art. 397 Nº 1.</t>
+          <t xml:space="preserve">Lavado De Dinero Persona Natural Art. 27  Ley 19.913</t>
         </is>
       </c>
       <c r="B64" s="65">
@@ -847,97 +847,97 @@
     <row r="65">
       <c t="inlineStr" r="A65">
         <is>
-          <t xml:space="preserve">Lesiones Graves.</t>
+          <t xml:space="preserve">Lesiones Graves Gravisimas. Art. 397 Nº 1.</t>
         </is>
       </c>
       <c r="B65" s="65">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c t="inlineStr" r="A66">
         <is>
-          <t xml:space="preserve">Lesiones Leves.</t>
+          <t xml:space="preserve">Lesiones Graves.</t>
         </is>
       </c>
       <c r="B66" s="65">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
       <c t="inlineStr" r="A67">
         <is>
-          <t xml:space="preserve">Lesiones Menos Graves.</t>
+          <t xml:space="preserve">Lesiones Leves.</t>
         </is>
       </c>
       <c r="B67" s="65">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
       <c t="inlineStr" r="A68">
         <is>
-          <t xml:space="preserve">Maltrato Corp. Menor. O Personas Vul.  Art. 403 Bis Inc. 1°.</t>
+          <t xml:space="preserve">Lesiones Menos Graves.</t>
         </is>
       </c>
       <c r="B68" s="65">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c t="inlineStr" r="A69">
         <is>
-          <t xml:space="preserve">Maltrato Habitual(Violencia Intrafamiliar) (Art. 14).</t>
+          <t xml:space="preserve">Maltrato Corp. Menor. O Personas Vul.  Art. 403 Bis Inc. 1°.</t>
         </is>
       </c>
       <c r="B69" s="65">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c t="inlineStr" r="A70">
         <is>
-          <t xml:space="preserve">Maltrato Obra A Carabineros Art. 416 Bis Codigo Just.militar</t>
+          <t xml:space="preserve">Maltrato Habitual(Violencia Intrafamiliar) (Art. 14).</t>
         </is>
       </c>
       <c r="B70" s="65">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
       <c t="inlineStr" r="A71">
         <is>
-          <t xml:space="preserve">Muertes Y Hallazgo De Cadaver.</t>
+          <t xml:space="preserve">Maltrato Obra A Carabineros Art. 416 Bis Codigo Just.militar</t>
         </is>
       </c>
       <c r="B71" s="65">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c t="inlineStr" r="A72">
         <is>
-          <t xml:space="preserve">Negociacion Incompatible.</t>
+          <t xml:space="preserve">Muertes Y Hallazgo De Cadaver.</t>
         </is>
       </c>
       <c r="B72" s="65">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
       <c t="inlineStr" r="A73">
         <is>
-          <t xml:space="preserve">Obstruccion A La Investigación.</t>
+          <t xml:space="preserve">Negociacion Incompatible.</t>
         </is>
       </c>
       <c r="B73" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c t="inlineStr" r="A74">
         <is>
-          <t xml:space="preserve">Ocult Ident En Control Prevent Art 496 N: 5 Y 12 Ley 20931</t>
+          <t xml:space="preserve">Obstruccion A La Investigación.</t>
         </is>
       </c>
       <c r="B74" s="65">
@@ -947,37 +947,37 @@
     <row r="75">
       <c t="inlineStr" r="A75">
         <is>
-          <t xml:space="preserve">Ocultamiento De Placa Patente (Art. 192 Letra E)</t>
+          <t xml:space="preserve">Ocult Ident En Control Prevent Art 496 N: 5 Y 12 Ley 20931</t>
         </is>
       </c>
       <c r="B75" s="65">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c t="inlineStr" r="A76">
         <is>
-          <t xml:space="preserve">Otras Faltas Codigo Penal.</t>
+          <t xml:space="preserve">Ocultamiento De Placa Patente (Art. 192 Letra E)</t>
         </is>
       </c>
       <c r="B76" s="65">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
       <c t="inlineStr" r="A77">
         <is>
-          <t xml:space="preserve">Otros De Los Cuasidelitos</t>
+          <t xml:space="preserve">Otras Faltas Codigo Penal.</t>
         </is>
       </c>
       <c r="B77" s="65">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
       <c t="inlineStr" r="A78">
         <is>
-          <t xml:space="preserve">Otros Delit Comet. Por Emp. Públic.en El Desem De Sus Cargos</t>
+          <t xml:space="preserve">Otros De Los Cuasidelitos</t>
         </is>
       </c>
       <c r="B78" s="65">
@@ -987,7 +987,7 @@
     <row r="79">
       <c t="inlineStr" r="A79">
         <is>
-          <t xml:space="preserve">Otros Delit. Contra Orden Y Seg. Public Comet Por Particul</t>
+          <t xml:space="preserve">Otros Delit Comet. Por Emp. Públic.en El Desem De Sus Cargos</t>
         </is>
       </c>
       <c r="B79" s="65">
@@ -997,7 +997,7 @@
     <row r="80">
       <c t="inlineStr" r="A80">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra La Ley De Propiedad Intelectual.</t>
+          <t xml:space="preserve">Otros Delit. Contra Orden Y Seg. Public Comet Por Particul</t>
         </is>
       </c>
       <c r="B80" s="65">
@@ -1007,7 +1007,7 @@
     <row r="81">
       <c t="inlineStr" r="A81">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
+          <t xml:space="preserve">Otros Delitos Contra La Ley De Propiedad Intelectual.</t>
         </is>
       </c>
       <c r="B81" s="65">
@@ -1017,67 +1017,67 @@
     <row r="82">
       <c t="inlineStr" r="A82">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra Las Personas</t>
+          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
         </is>
       </c>
       <c r="B82" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c t="inlineStr" r="A83">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra Ley De Propiedad Industrial.</t>
+          <t xml:space="preserve">Otros Delitos Contra Las Personas</t>
         </is>
       </c>
       <c r="B83" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c t="inlineStr" r="A84">
         <is>
-          <t xml:space="preserve">Otros Delitos De La Ley 20.000.</t>
+          <t xml:space="preserve">Otros Delitos Contra Ley De Propiedad Industrial.</t>
         </is>
       </c>
       <c r="B84" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c t="inlineStr" r="A85">
         <is>
-          <t xml:space="preserve">Otros Delitos De La Ley De Control De Armas (Ley 17.798)</t>
+          <t xml:space="preserve">Otros Delitos De La Ley 20.000.</t>
         </is>
       </c>
       <c r="B85" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
       <c t="inlineStr" r="A86">
         <is>
-          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
+          <t xml:space="preserve">Otros Delitos De La Ley De Control De Armas (Ley 17.798)</t>
         </is>
       </c>
       <c r="B86" s="65">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c t="inlineStr" r="A87">
         <is>
-          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
+          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
         </is>
       </c>
       <c r="B87" s="65">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88">
       <c t="inlineStr" r="A88">
         <is>
-          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
+          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
         </is>
       </c>
       <c r="B88" s="65">
@@ -1087,27 +1087,27 @@
     <row r="89">
       <c t="inlineStr" r="A89">
         <is>
-          <t xml:space="preserve">Posesión O Tenencia De Armas Prohibidas</t>
+          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
         </is>
       </c>
       <c r="B89" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
       <c t="inlineStr" r="A90">
         <is>
-          <t xml:space="preserve">Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
+          <t xml:space="preserve">Posesión O Tenencia De Armas Prohibidas</t>
         </is>
       </c>
       <c r="B90" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
       <c t="inlineStr" r="A91">
         <is>
-          <t xml:space="preserve">Presunta Desgracia Infantil.</t>
+          <t xml:space="preserve">Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
         </is>
       </c>
       <c r="B91" s="65">
@@ -1117,27 +1117,27 @@
     <row r="92">
       <c t="inlineStr" r="A92">
         <is>
-          <t xml:space="preserve">Presunta Desgracia.</t>
+          <t xml:space="preserve">Presunta Desgracia Infantil.</t>
         </is>
       </c>
       <c r="B92" s="65">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c t="inlineStr" r="A93">
         <is>
-          <t xml:space="preserve">Produc Y Trafico Por Desvio De Precursores Art. 2 Ley 20.000</t>
+          <t xml:space="preserve">Presunta Desgracia.</t>
         </is>
       </c>
       <c r="B93" s="65">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
       <c t="inlineStr" r="A94">
         <is>
-          <t xml:space="preserve">Receptacion Cometida Por Persona Jurídica Art. 456 Bis A</t>
+          <t xml:space="preserve">Produc Y Trafico Por Desvio De Precursores Art. 2 Ley 20.000</t>
         </is>
       </c>
       <c r="B94" s="65">
@@ -1147,97 +1147,97 @@
     <row r="95">
       <c t="inlineStr" r="A95">
         <is>
-          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
+          <t xml:space="preserve">Receptacion Cometida Por Persona Jurídica Art. 456 Bis A</t>
         </is>
       </c>
       <c r="B95" s="65">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c t="inlineStr" r="A96">
         <is>
-          <t xml:space="preserve">Receptación De Vehículos Motorizados</t>
+          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
         </is>
       </c>
       <c r="B96" s="65">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
       <c t="inlineStr" r="A97">
         <is>
-          <t xml:space="preserve">Robo Con Intimidacion.</t>
+          <t xml:space="preserve">Receptación De Vehículos Motorizados</t>
         </is>
       </c>
       <c r="B97" s="65">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c t="inlineStr" r="A98">
         <is>
-          <t xml:space="preserve">Robo Con Violencia, Intimidación De Vehículo Motorizado</t>
+          <t xml:space="preserve">Robo Con Intimidacion.</t>
         </is>
       </c>
       <c r="B98" s="65">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
       <c t="inlineStr" r="A99">
         <is>
-          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
+          <t xml:space="preserve">Robo Con Violencia, Intimidación De Vehículo Motorizado</t>
         </is>
       </c>
       <c r="B99" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c t="inlineStr" r="A100">
         <is>
-          <t xml:space="preserve">Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
+          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
         </is>
       </c>
       <c r="B100" s="65">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
       <c t="inlineStr" r="A101">
         <is>
-          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
+          <t xml:space="preserve">Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
         </is>
       </c>
       <c r="B101" s="65">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
       <c t="inlineStr" r="A102">
         <is>
-          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
+          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
         </is>
       </c>
       <c r="B102" s="65">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
       <c t="inlineStr" r="A103">
         <is>
-          <t xml:space="preserve">Robo Por Sorpresa.</t>
+          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
         </is>
       </c>
       <c r="B103" s="65">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104">
       <c t="inlineStr" r="A104">
         <is>
-          <t xml:space="preserve">Sabotaje Informático.</t>
+          <t xml:space="preserve">Robo Por Sorpresa.</t>
         </is>
       </c>
       <c r="B104" s="65">
@@ -1247,7 +1247,7 @@
     <row r="105">
       <c t="inlineStr" r="A105">
         <is>
-          <t xml:space="preserve">Torturas Cometidas P/Funcionarios Publ.(Art. 150, A Inc 1°)</t>
+          <t xml:space="preserve">Sabotaje Informático.</t>
         </is>
       </c>
       <c r="B105" s="65">
@@ -1257,60 +1257,70 @@
     <row r="106">
       <c t="inlineStr" r="A106">
         <is>
-          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
+          <t xml:space="preserve">Torturas Cometidas P/Funcionarios Publ.(Art. 150, A Inc 1°)</t>
         </is>
       </c>
       <c r="B106" s="65">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c t="inlineStr" r="A107">
         <is>
-          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
+          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
         </is>
       </c>
       <c r="B107" s="65">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108">
       <c t="inlineStr" r="A108">
         <is>
-          <t xml:space="preserve">Trata De Personas Para La Explotación Sexual</t>
+          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
         </is>
       </c>
       <c r="B108" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
       <c t="inlineStr" r="A109">
         <is>
-          <t xml:space="preserve">Uso Fraudulento De Tarjetas O Medios De Pago. Ley 20.009</t>
+          <t xml:space="preserve">Trata De Personas Para La Explotación Sexual</t>
         </is>
       </c>
       <c r="B109" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c t="inlineStr" r="A110">
         <is>
-          <t xml:space="preserve">Usurpacion No Violenta (Art. 458 Codigo Penal).</t>
+          <t xml:space="preserve">Uso Fraudulento De Tarjetas O Medios De Pago. Ley 20.009</t>
         </is>
       </c>
       <c r="B110" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c t="inlineStr" r="A111">
         <is>
+          <t xml:space="preserve">Usurpacion No Violenta (Art. 458 Codigo Penal).</t>
+        </is>
+      </c>
+      <c r="B111" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c t="inlineStr" r="A112">
+        <is>
           <t xml:space="preserve">Violacion  De Morada.</t>
         </is>
       </c>
-      <c r="B111" s="65">
+      <c r="B112" s="65">
         <v>1</v>
       </c>
     </row>
